--- a/data/trans_bre/P1410-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1410-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.9850313532702107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.855669221144747</v>
+        <v>-1.855669221144748</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.6698453626481166</v>
@@ -649,7 +649,7 @@
         <v>0.3281171174883961</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3769693960795925</v>
+        <v>-0.3769693960795926</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.254380747661377</v>
+        <v>-6.371994872615153</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.569254555834961</v>
+        <v>-1.916035832953391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.535345935631239</v>
+        <v>-1.972709379063466</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.334361890851103</v>
+        <v>-4.651553182370822</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.9255840710396891</v>
+        <v>-0.9162882592721553</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5577022207975905</v>
+        <v>-0.4615720412785221</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5817398353807767</v>
+        <v>-0.4999615523011947</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6940394922422278</v>
+        <v>-0.7009953362316474</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.4645213060886579</v>
+        <v>-0.5367305439119867</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.335863337440796</v>
+        <v>4.488957216815086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.266778198442676</v>
+        <v>4.11650531966388</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5497751455162977</v>
+        <v>0.6194369410007246</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05345003337338584</v>
+        <v>-0.05822629938208693</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.337859444901726</v>
+        <v>2.625151313942822</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.438417554319854</v>
+        <v>2.784277787575943</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1909959059443003</v>
+        <v>0.2284047389908939</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.7799992547950787</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.090193052422855</v>
+        <v>-1.090193052422854</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.08023918854584793</v>
@@ -749,7 +749,7 @@
         <v>0.1915330594549697</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2016103025888448</v>
+        <v>-0.2016103025888447</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.701671819883087</v>
+        <v>-3.341337401393488</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.286581600974275</v>
+        <v>-1.714990284000508</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.76665928349261</v>
+        <v>-1.942943901165325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.764622394115389</v>
+        <v>-3.623682988475925</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4800982728314873</v>
+        <v>-0.4474571547526258</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3203007589379723</v>
+        <v>-0.3717818508138597</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3417373024873549</v>
+        <v>-0.3834810286632939</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5316206399546911</v>
+        <v>-0.5035615809102013</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.585426646793711</v>
+        <v>2.271121209477861</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.791228737039421</v>
+        <v>3.2646027692449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.331056459138739</v>
+        <v>3.377908435749818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.443738476466485</v>
+        <v>1.223105552860234</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5477138689310652</v>
+        <v>0.5085451118525628</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.967469154265764</v>
+        <v>1.772934867974141</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.120719504909844</v>
+        <v>1.100046196064882</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.357536826690411</v>
+        <v>0.3427586674582953</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.755049119566682</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3710877373528799</v>
+        <v>0.3710877373528814</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1051204930612291</v>
@@ -849,7 +849,7 @@
         <v>-0.5278819129549682</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.06105529748916081</v>
+        <v>0.06105529748916104</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.728571348269809</v>
+        <v>-3.727507216186653</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.792577173569862</v>
+        <v>-3.000967501917991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.96696385052552</v>
+        <v>-6.035345960118389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.824969113975009</v>
+        <v>-2.527661076255273</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6676588883260773</v>
+        <v>-0.640342384330895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4101184231322133</v>
+        <v>-0.4520951222816459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8390806687164526</v>
+        <v>-0.8503281590285292</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3635840167757324</v>
+        <v>-0.325888950535812</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.202839688724473</v>
+        <v>2.5839611518778</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.572644821057056</v>
+        <v>4.352198952650814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4094325607345957</v>
+        <v>0.03368664662798133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.995990692766267</v>
+        <v>3.236026955721113</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8501318600243005</v>
+        <v>1.064735023723589</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.476233228777782</v>
+        <v>1.299923496164324</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1777379701591992</v>
+        <v>0.09485550024748662</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6614994361664225</v>
+        <v>0.7425917883124734</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>1.359942368615892</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.267352040010183</v>
+        <v>-0.2673520400101829</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.246067664801697</v>
+        <v>-3.323819079269679</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.5279386594368</v>
+        <v>-4.374807565816196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.561716121307058</v>
+        <v>2.073025083268769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.505498374842225</v>
+        <v>-4.339681195074152</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.747698939555946</v>
+        <v>-0.7470227971265425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5854062773527778</v>
+        <v>-0.5737988790665266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2115982253959592</v>
+        <v>0.3397281156616012</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6033950089749036</v>
+        <v>-0.5826412936741143</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.451495578957277</v>
+        <v>1.261040028655878</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.870080251102511</v>
+        <v>2.122548973875454</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.046014849237743</v>
+        <v>9.37078023147307</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.232109754849035</v>
+        <v>1.371010540052844</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9291907536714327</v>
+        <v>0.7339249927348408</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4717694166925052</v>
+        <v>0.538686977528016</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.577956863761757</v>
+        <v>3.701401270860671</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3206256961598168</v>
+        <v>0.4018938914434497</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.268119389037055</v>
+        <v>-5.320900838883835</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.97903147316893</v>
+        <v>-1.892454488669379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.760497347543214</v>
+        <v>-2.877075951530941</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.601011052096942</v>
+        <v>-2.312799426008192</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8013812935860666</v>
+        <v>-0.7496955775711581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.499109246826428</v>
+        <v>-0.4914092175099283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8216121837945951</v>
+        <v>-0.8995101273701295</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5380089774717933</v>
+        <v>-0.4908876168446145</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.362067812758711</v>
+        <v>2.804930152585299</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.910261388799632</v>
+        <v>5.987391219942979</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.483930675464591</v>
+        <v>2.645602582675088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.114614971796536</v>
+        <v>2.415235394233096</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8504173038986534</v>
+        <v>0.9439830287658529</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.927947750894902</v>
+        <v>4.235397911668406</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.878665071862455</v>
+        <v>3.80332983644187</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.064570156055582</v>
+        <v>1.335490005611149</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>3.044261556927509</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-1.176199433565439</v>
+        <v>-1.176199433565438</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.5964295749650649</v>
@@ -1149,7 +1149,7 @@
         <v>1.233933556552534</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1549828016772732</v>
+        <v>-0.154982801677273</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.747888442633136</v>
+        <v>-5.937536174532472</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.172731042855859</v>
+        <v>-1.823876965535759</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.8295836618533926</v>
+        <v>-0.1464171403386792</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.224694513950949</v>
+        <v>-4.39632366597329</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8706690998821366</v>
+        <v>-0.8810321865162286</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3305856901017051</v>
+        <v>-0.3065106569878331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3102118332980829</v>
+        <v>-0.2268586346140489</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4621195336036604</v>
+        <v>-0.460099752097659</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.2410117945826538</v>
+        <v>0.08510505007798264</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.000598252591923</v>
+        <v>6.301646386722823</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.563949367762348</v>
+        <v>6.875969612643167</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.859994435977146</v>
+        <v>2.108099449759991</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1177262536805149</v>
+        <v>0.1299885247032997</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.843614453246402</v>
+        <v>1.92987583673311</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.274591898121193</v>
+        <v>5.197528727732016</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3180584096336248</v>
+        <v>0.3618003639280273</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.475138914329663</v>
+        <v>-1.301868252189656</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.86773033225774</v>
+        <v>-3.988713365772811</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.527870755976638</v>
+        <v>-1.556100769464008</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.850733848346007</v>
+        <v>-3.793080616938302</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3565223714119275</v>
+        <v>-0.3172517468970744</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6684301109223248</v>
+        <v>-0.6569152293143612</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3581203667073122</v>
+        <v>-0.3552909231423391</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4580685837202419</v>
+        <v>-0.4575920974606859</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.847560194717312</v>
+        <v>2.906664551003748</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4361744328258304</v>
+        <v>0.0404734898795169</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.977882529003356</v>
+        <v>2.760445973048783</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.027665944916931</v>
+        <v>1.256646336727598</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.194083613693127</v>
+        <v>1.088477037218185</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1518977138885501</v>
+        <v>0.07111784223457188</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.411304168467314</v>
+        <v>1.22234144317577</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2111888486941756</v>
+        <v>0.2540569452836908</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-0.5039899746391817</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-1.192618030997669</v>
+        <v>-1.192618030997668</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1446582887149098</v>
@@ -1349,7 +1349,7 @@
         <v>-0.1141533108866072</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.295312635609931</v>
+        <v>-0.2953126356099309</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.181724184553405</v>
+        <v>-2.867540425225666</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.5847325536280472</v>
+        <v>-0.8611346131025165</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.47528008292601</v>
+        <v>-2.558114517365321</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.913964661367686</v>
+        <v>-2.753966716598073</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4999735869021596</v>
+        <v>-0.4673301065520808</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2079056657253924</v>
+        <v>-0.31113321469625</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4696166779375484</v>
+        <v>-0.4807123105350063</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5674589885259068</v>
+        <v>-0.5366999318722925</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.441400655688237</v>
+        <v>1.563821436327906</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.622117279788533</v>
+        <v>2.524850540442652</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.244488837195801</v>
+        <v>1.503028918428423</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3366394708296128</v>
+        <v>0.2118813906489909</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.387500013637798</v>
+        <v>0.4163347893967294</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.719695078038257</v>
+        <v>1.503433876566379</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3705442334581948</v>
+        <v>0.4382158910316845</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1497146677469808</v>
+        <v>0.07561011740126851</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>0.7427249592574638</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-1.039492761678838</v>
+        <v>-1.039492761678837</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.1818681144445893</v>
@@ -1449,7 +1449,7 @@
         <v>0.1976420214730248</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.1921249572074323</v>
+        <v>-0.1921249572074322</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.791909451317128</v>
+        <v>-1.778475045236567</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6482899571850285</v>
+        <v>-0.6463471149043439</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2386170662781325</v>
+        <v>-0.3026644149198275</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.013253258940576</v>
+        <v>-1.918095868971474</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.3458688064624474</v>
+        <v>-0.3526430993535544</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1479291582105703</v>
+        <v>-0.1484637273349824</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.06336898315999227</v>
+        <v>-0.06915815720915595</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.3302182938581203</v>
+        <v>-0.3201446093119124</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1521888375909968</v>
+        <v>0.22390970156494</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.216785364103195</v>
+        <v>1.242886115246654</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.610031201507391</v>
+        <v>1.671162371136508</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.1646410968118982</v>
+        <v>-0.1536653161486252</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.04014205474178545</v>
+        <v>0.05973475441316597</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3539187906690376</v>
+        <v>0.3622730479623981</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4797284824627503</v>
+        <v>0.5069869268149088</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.0281049445756226</v>
+        <v>-0.03105315278286058</v>
       </c>
     </row>
     <row r="31">
